--- a/MySQL/解决-MySQL主从延迟问题.xlsx
+++ b/MySQL/解决-MySQL主从延迟问题.xlsx
@@ -16,12 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>MySQL5.7及以上版本主从延迟问题解决</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（一）</t>
     </r>
     <r>
@@ -56,6 +64,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开启</t>
     </r>
     <r>
@@ -83,6 +99,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>set global slave_parallel_workers=</t>
     </r>
     <r>
@@ -113,6 +137,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（二）</t>
     </r>
     <r>
@@ -128,25 +160,46 @@
     </r>
   </si>
   <si>
+    <t>1.网络优化：</t>
+  </si>
+  <si>
+    <t>①：主从在内网进行配置</t>
+  </si>
+  <si>
+    <t>②：主从在内网进行配置</t>
+  </si>
+  <si>
+    <t>2.硬件优化：</t>
+  </si>
+  <si>
+    <t>①：采用好服务器，比如4cpu比2cpu性能明显好，2cpu比1cpu性能明显好。</t>
+  </si>
+  <si>
+    <t>②：增大服务器内存</t>
+  </si>
+  <si>
+    <t>3.参数优化：</t>
+  </si>
+  <si>
+    <t>①：主库sync_binlog在slave端设置为0</t>
+  </si>
+  <si>
+    <t>②：slave端，如果使用的存储引擎是innodb，设置 innodb_flush_log_at_trx_commit =2|0 由系统决定何时真正写入磁盘，减少落盘，加快接收binlog</t>
+  </si>
+  <si>
+    <t>③：直接禁用slave端的binlog</t>
+  </si>
+  <si>
+    <t>4.架构优化：</t>
+  </si>
+  <si>
     <t>①：单个库读写分离，一主多从，主写从读，分散压力。这样从库压力比主库高，保护主库。</t>
   </si>
   <si>
     <t>②：服务的基础架构在业务和mysql之间加入memcache或者redis的cache层。降低mysql的读压力。</t>
   </si>
   <si>
-    <t>③：调大innodb_buffer_pool_size尽量让数据储存在内存中，减少落盘次数</t>
-  </si>
-  <si>
-    <t>④：采用好服务器，比如4cpu比2cpu性能明显好，2cpu比1cpu性能明显好。</t>
-  </si>
-  <si>
-    <t>⑤：sync_binlog在slave端设置为0</t>
-  </si>
-  <si>
-    <t>⑥：slave端，如果使用的存储引擎是innodb，设置 innodb_flush_log_at_trx_commit =2|0 由系统决定何时真正写入磁盘，减少落盘，加快接收binlog</t>
-  </si>
-  <si>
-    <t>⑦：直接禁用slave端的binlog</t>
+    <t>③：从库的服务器配置不能比主库的服务器差</t>
   </si>
   <si>
     <t>感觉还不错的解决方式：</t>
@@ -160,12 +213,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,35 +276,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,15 +305,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,25 +329,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,15 +376,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,14 +394,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,17 +405,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +627,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,17 +669,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,15 +719,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -657,177 +727,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,14 +896,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1386,10 +1432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -1448,46 +1494,46 @@
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="3:4">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:6">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="3:6">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="3:6">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="2" t="s">
@@ -1505,192 +1551,243 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" customHeight="1" spans="2:11">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:11">
-      <c r="B25" s="6" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:11">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:11">
-      <c r="B26" s="6" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="3:11">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" customHeight="1" spans="2:11">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:11">
-      <c r="B28" s="6" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:12">
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:11">
-      <c r="B29" s="6" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:11">
+      <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" customHeight="1" spans="2:11">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" customHeight="1" spans="2:11">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" customHeight="1" spans="2:11">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" customHeight="1" spans="2:11">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="9" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:11">
-      <c r="B36" s="10" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:12">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:12">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:2">
+      <c r="B34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:11">
+      <c r="C35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="3:12">
+      <c r="C36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
     <row r="37" customHeight="1" spans="2:11">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:11">
+      <c r="A38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:11">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:11">
+      <c r="B40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:11">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1701,19 +1798,19 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="C37:K37"/>
     <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A34:K35"/>
-    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="A38:K39"/>
+    <mergeCell ref="B40:K41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
